--- a/xlsx2json/data.xlsx
+++ b/xlsx2json/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -37,6 +37,9 @@
     <t xml:space="preserve">Param03</t>
   </si>
   <si>
+    <t xml:space="preserve">Param04</t>
+  </si>
+  <si>
     <t xml:space="preserve">AAA</t>
   </si>
   <si>
@@ -46,6 +49,9 @@
     <t xml:space="preserve">壱</t>
   </si>
   <si>
+    <t xml:space="preserve">AA_000</t>
+  </si>
+  <si>
     <t xml:space="preserve">BBB</t>
   </si>
   <si>
@@ -55,6 +61,9 @@
     <t xml:space="preserve">弐</t>
   </si>
   <si>
+    <t xml:space="preserve">AA_001</t>
+  </si>
+  <si>
     <t xml:space="preserve">CCC</t>
   </si>
   <si>
@@ -64,6 +73,9 @@
     <t xml:space="preserve">参</t>
   </si>
   <si>
+    <t xml:space="preserve">AA_002</t>
+  </si>
+  <si>
     <t xml:space="preserve">DDD</t>
   </si>
   <si>
@@ -73,6 +85,9 @@
     <t xml:space="preserve">肆</t>
   </si>
   <si>
+    <t xml:space="preserve">AA_003</t>
+  </si>
+  <si>
     <t xml:space="preserve">EEE</t>
   </si>
   <si>
@@ -82,6 +97,9 @@
     <t xml:space="preserve">伍</t>
   </si>
   <si>
+    <t xml:space="preserve">AA_004</t>
+  </si>
+  <si>
     <t xml:space="preserve">FFF</t>
   </si>
   <si>
@@ -91,6 +109,9 @@
     <t xml:space="preserve">陸</t>
   </si>
   <si>
+    <t xml:space="preserve">AA_005</t>
+  </si>
+  <si>
     <t xml:space="preserve">GGG</t>
   </si>
   <si>
@@ -100,6 +121,9 @@
     <t xml:space="preserve">漆</t>
   </si>
   <si>
+    <t xml:space="preserve">AA_006</t>
+  </si>
+  <si>
     <t xml:space="preserve">HHH</t>
   </si>
   <si>
@@ -109,6 +133,9 @@
     <t xml:space="preserve">捌</t>
   </si>
   <si>
+    <t xml:space="preserve">AA_007</t>
+  </si>
+  <si>
     <t xml:space="preserve">III</t>
   </si>
   <si>
@@ -118,6 +145,9 @@
     <t xml:space="preserve">玖</t>
   </si>
   <si>
+    <t xml:space="preserve">AA_008</t>
+  </si>
+  <si>
     <t xml:space="preserve">JJJ</t>
   </si>
   <si>
@@ -125,6 +155,9 @@
   </si>
   <si>
     <t xml:space="preserve">拾</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AA_009</t>
   </si>
 </sst>
 </file>
@@ -313,10 +346,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -337,22 +370,28 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1.1</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -360,16 +399,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>2.2</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -377,16 +419,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>3.3</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -394,16 +439,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>4.4</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -411,16 +459,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>5.5</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -428,16 +479,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>6.6</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -445,16 +499,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>7.7</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -462,16 +519,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>8.8</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -479,16 +539,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>9.9</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -496,16 +559,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>10.1</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
